--- a/VS_censor_send.xlsx
+++ b/VS_censor_send.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anniechen/Documents/GitHub/Capstone-VS/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE28394-2ED4-DE45-83FF-86C99F776D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27330" windowHeight="14130" activeTab="2"/>
+    <workbookView xWindow="160" yWindow="4380" windowWidth="27340" windowHeight="14140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VS_censor_send" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="445">
   <si>
     <t>ID</t>
   </si>
@@ -1347,12 +1348,21 @@
   </si>
   <si>
     <t>A:R petrous tumo</t>
+  </si>
+  <si>
+    <t>A:L Acoustic</t>
+  </si>
+  <si>
+    <t>A:L tumor GTV</t>
+  </si>
+  <si>
+    <t>A:L AN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2153,19 +2163,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F357"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2185,7 +2195,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2202,7 +2212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2216,7 +2226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2233,7 +2243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2250,7 +2260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2264,7 +2274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2278,7 +2288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2298,7 +2308,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2315,7 +2325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2332,7 +2342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2349,7 +2359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2366,7 +2376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2383,7 +2393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -2400,7 +2410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -2417,7 +2427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -2434,7 +2444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -2451,7 +2461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -2468,7 +2478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -2485,7 +2495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -2502,7 +2512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -2522,7 +2532,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -2539,7 +2549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2556,7 +2566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2573,7 +2583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -2590,7 +2600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -2610,7 +2620,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -2627,7 +2637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2644,7 +2654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -2661,7 +2671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -2678,7 +2688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -2695,7 +2705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -2715,7 +2725,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -2732,7 +2742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -2752,7 +2762,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -2769,7 +2779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -2786,7 +2796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -2803,7 +2813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -2820,7 +2830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -2837,7 +2847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -2854,7 +2864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>71</v>
       </c>
@@ -2871,7 +2881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -2888,7 +2898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -2905,7 +2915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -2925,7 +2935,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -2945,7 +2955,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>78</v>
       </c>
@@ -2959,7 +2969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>79</v>
       </c>
@@ -2976,7 +2986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>80</v>
       </c>
@@ -2993,7 +3003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>81</v>
       </c>
@@ -3010,7 +3020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -3030,7 +3040,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>84</v>
       </c>
@@ -3047,7 +3057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>85</v>
       </c>
@@ -3064,7 +3074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>86</v>
       </c>
@@ -3084,7 +3094,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -3101,7 +3111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>88</v>
       </c>
@@ -3115,7 +3125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>89</v>
       </c>
@@ -3135,7 +3145,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>90</v>
       </c>
@@ -3152,7 +3162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>91</v>
       </c>
@@ -3169,7 +3179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>92</v>
       </c>
@@ -3183,7 +3193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>93</v>
       </c>
@@ -3200,7 +3210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -3217,7 +3227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>95</v>
       </c>
@@ -3234,7 +3244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -3251,7 +3261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>97</v>
       </c>
@@ -3268,7 +3278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -3285,7 +3295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>99</v>
       </c>
@@ -3302,7 +3312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>101</v>
       </c>
@@ -3319,7 +3329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>103</v>
       </c>
@@ -3336,7 +3346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>104</v>
       </c>
@@ -3356,7 +3366,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>105</v>
       </c>
@@ -3376,7 +3386,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>106</v>
       </c>
@@ -3393,7 +3403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>107</v>
       </c>
@@ -3410,7 +3420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>108</v>
       </c>
@@ -3430,7 +3440,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>109</v>
       </c>
@@ -3447,7 +3457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>111</v>
       </c>
@@ -3464,7 +3474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>112</v>
       </c>
@@ -3481,7 +3491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>113</v>
       </c>
@@ -3498,7 +3508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>114</v>
       </c>
@@ -3515,7 +3525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>115</v>
       </c>
@@ -3529,7 +3539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>116</v>
       </c>
@@ -3546,7 +3556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>117</v>
       </c>
@@ -3560,7 +3570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>118</v>
       </c>
@@ -3577,7 +3587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>119</v>
       </c>
@@ -3597,7 +3607,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>120</v>
       </c>
@@ -3614,7 +3624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>121</v>
       </c>
@@ -3631,7 +3641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>122</v>
       </c>
@@ -3651,7 +3661,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>123</v>
       </c>
@@ -3668,7 +3678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>124</v>
       </c>
@@ -3685,7 +3695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>125</v>
       </c>
@@ -3702,7 +3712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>126</v>
       </c>
@@ -3719,7 +3729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>128</v>
       </c>
@@ -3736,7 +3746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>129</v>
       </c>
@@ -3753,7 +3763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>130</v>
       </c>
@@ -3770,7 +3780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>131</v>
       </c>
@@ -3787,7 +3797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>132</v>
       </c>
@@ -3804,7 +3814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>133</v>
       </c>
@@ -3824,7 +3834,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>135</v>
       </c>
@@ -3844,7 +3854,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>137</v>
       </c>
@@ -3861,7 +3871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>138</v>
       </c>
@@ -3878,7 +3888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>139</v>
       </c>
@@ -3892,7 +3902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>140</v>
       </c>
@@ -3906,7 +3916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>141</v>
       </c>
@@ -3920,7 +3930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>142</v>
       </c>
@@ -3937,7 +3947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>143</v>
       </c>
@@ -3951,7 +3961,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>143</v>
       </c>
@@ -3971,7 +3981,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>144</v>
       </c>
@@ -3991,7 +4001,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>145</v>
       </c>
@@ -4008,7 +4018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>146</v>
       </c>
@@ -4025,7 +4035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>147</v>
       </c>
@@ -4042,7 +4052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>148</v>
       </c>
@@ -4059,7 +4069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>149</v>
       </c>
@@ -4076,7 +4086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>151</v>
       </c>
@@ -4093,7 +4103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>152</v>
       </c>
@@ -4110,7 +4120,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>153</v>
       </c>
@@ -4127,7 +4137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>155</v>
       </c>
@@ -4144,7 +4154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>156</v>
       </c>
@@ -4161,7 +4171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>157</v>
       </c>
@@ -4178,7 +4188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>158</v>
       </c>
@@ -4195,7 +4205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>159</v>
       </c>
@@ -4212,7 +4222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>161</v>
       </c>
@@ -4229,7 +4239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>163</v>
       </c>
@@ -4246,7 +4256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>164</v>
       </c>
@@ -4263,7 +4273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>165</v>
       </c>
@@ -4280,7 +4290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>166</v>
       </c>
@@ -4297,7 +4307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>167</v>
       </c>
@@ -4314,7 +4324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>168</v>
       </c>
@@ -4331,7 +4341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>169</v>
       </c>
@@ -4348,7 +4358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>170</v>
       </c>
@@ -4362,7 +4372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>171</v>
       </c>
@@ -4376,7 +4386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>173</v>
       </c>
@@ -4393,7 +4403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>174</v>
       </c>
@@ -4410,7 +4420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>176</v>
       </c>
@@ -4427,7 +4437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>177</v>
       </c>
@@ -4447,7 +4457,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>179</v>
       </c>
@@ -4464,7 +4474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>180</v>
       </c>
@@ -4481,7 +4491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>181</v>
       </c>
@@ -4498,7 +4508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>182</v>
       </c>
@@ -4518,7 +4528,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>184</v>
       </c>
@@ -4535,7 +4545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>185</v>
       </c>
@@ -4552,7 +4562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>186</v>
       </c>
@@ -4569,7 +4579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>187</v>
       </c>
@@ -4586,7 +4596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>188</v>
       </c>
@@ -4600,7 +4610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>189</v>
       </c>
@@ -4617,7 +4627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>190</v>
       </c>
@@ -4634,7 +4644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>191</v>
       </c>
@@ -4651,7 +4661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>193</v>
       </c>
@@ -4668,7 +4678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>194</v>
       </c>
@@ -4685,7 +4695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>195</v>
       </c>
@@ -4705,7 +4715,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>196</v>
       </c>
@@ -4722,7 +4732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>197</v>
       </c>
@@ -4739,7 +4749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>198</v>
       </c>
@@ -4756,7 +4766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>199</v>
       </c>
@@ -4773,7 +4783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>200</v>
       </c>
@@ -4790,7 +4800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>201</v>
       </c>
@@ -4807,7 +4817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>202</v>
       </c>
@@ -4827,7 +4837,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>203</v>
       </c>
@@ -4844,7 +4854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>204</v>
       </c>
@@ -4861,7 +4871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>206</v>
       </c>
@@ -4878,7 +4888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>207</v>
       </c>
@@ -4895,7 +4905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>208</v>
       </c>
@@ -4912,7 +4922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>209</v>
       </c>
@@ -4929,7 +4939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>210</v>
       </c>
@@ -4946,7 +4956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>211</v>
       </c>
@@ -4963,7 +4973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>212</v>
       </c>
@@ -4977,7 +4987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>213</v>
       </c>
@@ -4994,7 +5004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>214</v>
       </c>
@@ -5011,7 +5021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>215</v>
       </c>
@@ -5028,7 +5038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>217</v>
       </c>
@@ -5045,7 +5055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>219</v>
       </c>
@@ -5062,7 +5072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>220</v>
       </c>
@@ -5079,7 +5089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>221</v>
       </c>
@@ -5096,7 +5106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>222</v>
       </c>
@@ -5113,7 +5123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>223</v>
       </c>
@@ -5130,7 +5140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>224</v>
       </c>
@@ -5147,7 +5157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>225</v>
       </c>
@@ -5164,7 +5174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>226</v>
       </c>
@@ -5181,7 +5191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>227</v>
       </c>
@@ -5198,7 +5208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>229</v>
       </c>
@@ -5215,7 +5225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>230</v>
       </c>
@@ -5232,7 +5242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>232</v>
       </c>
@@ -5249,7 +5259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>233</v>
       </c>
@@ -5266,7 +5276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>234</v>
       </c>
@@ -5283,7 +5293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>235</v>
       </c>
@@ -5300,7 +5310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>236</v>
       </c>
@@ -5317,7 +5327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>237</v>
       </c>
@@ -5331,7 +5341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>238</v>
       </c>
@@ -5348,7 +5358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>239</v>
       </c>
@@ -5365,7 +5375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>240</v>
       </c>
@@ -5382,7 +5392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>241</v>
       </c>
@@ -5399,7 +5409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>242</v>
       </c>
@@ -5416,7 +5426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>243</v>
       </c>
@@ -5433,7 +5443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>244</v>
       </c>
@@ -5450,7 +5460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>245</v>
       </c>
@@ -5470,7 +5480,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>245</v>
       </c>
@@ -5490,7 +5500,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>246</v>
       </c>
@@ -5510,7 +5520,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>247</v>
       </c>
@@ -5527,7 +5537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>248</v>
       </c>
@@ -5544,7 +5554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>250</v>
       </c>
@@ -5561,7 +5571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>251</v>
       </c>
@@ -5578,7 +5588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>252</v>
       </c>
@@ -5595,7 +5605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>253</v>
       </c>
@@ -5612,7 +5622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>254</v>
       </c>
@@ -5629,7 +5639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>255</v>
       </c>
@@ -5646,7 +5656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>256</v>
       </c>
@@ -5663,7 +5673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>258</v>
       </c>
@@ -5680,7 +5690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>259</v>
       </c>
@@ -5697,7 +5707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>260</v>
       </c>
@@ -5714,7 +5724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>261</v>
       </c>
@@ -5731,7 +5741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>263</v>
       </c>
@@ -5748,7 +5758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>264</v>
       </c>
@@ -5765,7 +5775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>265</v>
       </c>
@@ -5782,7 +5792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>266</v>
       </c>
@@ -5799,7 +5809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>267</v>
       </c>
@@ -5816,7 +5826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>269</v>
       </c>
@@ -5830,7 +5840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>270</v>
       </c>
@@ -5847,7 +5857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>271</v>
       </c>
@@ -5867,7 +5877,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>273</v>
       </c>
@@ -5887,7 +5897,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>274</v>
       </c>
@@ -5901,7 +5911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>275</v>
       </c>
@@ -5921,7 +5931,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>276</v>
       </c>
@@ -5938,7 +5948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>277</v>
       </c>
@@ -5958,7 +5968,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>278</v>
       </c>
@@ -5972,7 +5982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>280</v>
       </c>
@@ -5989,7 +5999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>281</v>
       </c>
@@ -6006,7 +6016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>282</v>
       </c>
@@ -6023,7 +6033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>283</v>
       </c>
@@ -6040,7 +6050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>285</v>
       </c>
@@ -6060,7 +6070,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>286</v>
       </c>
@@ -6077,7 +6087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>287</v>
       </c>
@@ -6094,7 +6104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>288</v>
       </c>
@@ -6111,7 +6121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>289</v>
       </c>
@@ -6128,7 +6138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>291</v>
       </c>
@@ -6148,7 +6158,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>292</v>
       </c>
@@ -6168,7 +6178,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>293</v>
       </c>
@@ -6185,7 +6195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>294</v>
       </c>
@@ -6202,7 +6212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>295</v>
       </c>
@@ -6219,7 +6229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>296</v>
       </c>
@@ -6236,7 +6246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>297</v>
       </c>
@@ -6253,7 +6263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>298</v>
       </c>
@@ -6270,7 +6280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>299</v>
       </c>
@@ -6284,7 +6294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>300</v>
       </c>
@@ -6301,7 +6311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>301</v>
       </c>
@@ -6321,7 +6331,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>302</v>
       </c>
@@ -6338,7 +6348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>303</v>
       </c>
@@ -6355,7 +6365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>304</v>
       </c>
@@ -6372,7 +6382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>305</v>
       </c>
@@ -6389,7 +6399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>306</v>
       </c>
@@ -6403,7 +6413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>307</v>
       </c>
@@ -6420,7 +6430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>308</v>
       </c>
@@ -6437,7 +6447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>309</v>
       </c>
@@ -6457,7 +6467,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>311</v>
       </c>
@@ -6474,7 +6484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>312</v>
       </c>
@@ -6491,7 +6501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>313</v>
       </c>
@@ -6508,7 +6518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>314</v>
       </c>
@@ -6525,7 +6535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>315</v>
       </c>
@@ -6545,7 +6555,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>317</v>
       </c>
@@ -6562,7 +6572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>318</v>
       </c>
@@ -6579,7 +6589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>319</v>
       </c>
@@ -6596,7 +6606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>320</v>
       </c>
@@ -6613,7 +6623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>321</v>
       </c>
@@ -6630,7 +6640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>322</v>
       </c>
@@ -6647,7 +6657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>323</v>
       </c>
@@ -6664,7 +6674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>324</v>
       </c>
@@ -6681,7 +6691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>325</v>
       </c>
@@ -6698,7 +6708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>326</v>
       </c>
@@ -6715,7 +6725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>327</v>
       </c>
@@ -6732,7 +6742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>329</v>
       </c>
@@ -6752,7 +6762,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>330</v>
       </c>
@@ -6769,7 +6779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>331</v>
       </c>
@@ -6786,7 +6796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>332</v>
       </c>
@@ -6803,7 +6813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>333</v>
       </c>
@@ -6820,7 +6830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>334</v>
       </c>
@@ -6837,7 +6847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>335</v>
       </c>
@@ -6854,7 +6864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>336</v>
       </c>
@@ -6871,7 +6881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>337</v>
       </c>
@@ -6888,7 +6898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>338</v>
       </c>
@@ -6905,7 +6915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>340</v>
       </c>
@@ -6922,7 +6932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>342</v>
       </c>
@@ -6942,7 +6952,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>344</v>
       </c>
@@ -6959,7 +6969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>345</v>
       </c>
@@ -6976,7 +6986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>346</v>
       </c>
@@ -6993,7 +7003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>347</v>
       </c>
@@ -7013,7 +7023,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>348</v>
       </c>
@@ -7030,7 +7040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>349</v>
       </c>
@@ -7047,7 +7057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>350</v>
       </c>
@@ -7064,7 +7074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>351</v>
       </c>
@@ -7081,7 +7091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>352</v>
       </c>
@@ -7098,7 +7108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>353</v>
       </c>
@@ -7115,7 +7125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>354</v>
       </c>
@@ -7132,7 +7142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>355</v>
       </c>
@@ -7149,7 +7159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>356</v>
       </c>
@@ -7166,7 +7176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>357</v>
       </c>
@@ -7186,7 +7196,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>359</v>
       </c>
@@ -7203,7 +7213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>360</v>
       </c>
@@ -7220,7 +7230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>362</v>
       </c>
@@ -7234,7 +7244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>363</v>
       </c>
@@ -7251,7 +7261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>365</v>
       </c>
@@ -7268,7 +7278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>366</v>
       </c>
@@ -7285,7 +7295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>368</v>
       </c>
@@ -7302,7 +7312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>369</v>
       </c>
@@ -7319,7 +7329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>370</v>
       </c>
@@ -7336,7 +7346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>371</v>
       </c>
@@ -7353,7 +7363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>372</v>
       </c>
@@ -7370,7 +7380,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>373</v>
       </c>
@@ -7387,7 +7397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>374</v>
       </c>
@@ -7404,7 +7414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>375</v>
       </c>
@@ -7421,7 +7431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>376</v>
       </c>
@@ -7438,7 +7448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>377</v>
       </c>
@@ -7455,7 +7465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>378</v>
       </c>
@@ -7472,7 +7482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>379</v>
       </c>
@@ -7492,7 +7502,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>381</v>
       </c>
@@ -7509,7 +7519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>382</v>
       </c>
@@ -7526,7 +7536,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>383</v>
       </c>
@@ -7543,7 +7553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>384</v>
       </c>
@@ -7560,7 +7570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>385</v>
       </c>
@@ -7574,7 +7584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>386</v>
       </c>
@@ -7594,7 +7604,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>387</v>
       </c>
@@ -7611,7 +7621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>389</v>
       </c>
@@ -7628,7 +7638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>390</v>
       </c>
@@ -7648,7 +7658,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>391</v>
       </c>
@@ -7665,7 +7675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>392</v>
       </c>
@@ -7682,7 +7692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>393</v>
       </c>
@@ -7699,7 +7709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>394</v>
       </c>
@@ -7719,7 +7729,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>395</v>
       </c>
@@ -7736,7 +7746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>396</v>
       </c>
@@ -7750,7 +7760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>397</v>
       </c>
@@ -7770,7 +7780,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>398</v>
       </c>
@@ -7784,7 +7794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>400</v>
       </c>
@@ -7801,7 +7811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>401</v>
       </c>
@@ -7818,7 +7828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>402</v>
       </c>
@@ -7832,7 +7842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>403</v>
       </c>
@@ -7849,7 +7859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>404</v>
       </c>
@@ -7866,7 +7876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>405</v>
       </c>
@@ -7883,7 +7893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>407</v>
       </c>
@@ -7900,7 +7910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>409</v>
       </c>
@@ -7917,7 +7927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>411</v>
       </c>
@@ -7937,7 +7947,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>412</v>
       </c>
@@ -7954,7 +7964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>413</v>
       </c>
@@ -7971,7 +7981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>414</v>
       </c>
@@ -7988,7 +7998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>415</v>
       </c>
@@ -8005,7 +8015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>416</v>
       </c>
@@ -8022,7 +8032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>417</v>
       </c>
@@ -8039,7 +8049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>418</v>
       </c>
@@ -8059,7 +8069,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>419</v>
       </c>
@@ -8076,7 +8086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>420</v>
       </c>
@@ -8090,7 +8100,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>423</v>
       </c>
@@ -8110,7 +8120,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>424</v>
       </c>
@@ -8127,7 +8137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>425</v>
       </c>
@@ -8144,7 +8154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>427</v>
       </c>
@@ -8161,7 +8171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>428</v>
       </c>
@@ -8178,7 +8188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>429</v>
       </c>
@@ -8195,7 +8205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>430</v>
       </c>
@@ -8209,7 +8219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>431</v>
       </c>
@@ -8226,7 +8236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>432</v>
       </c>
@@ -8246,7 +8256,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>433</v>
       </c>
@@ -8263,7 +8273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>434</v>
       </c>
@@ -8280,7 +8290,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>435</v>
       </c>
@@ -8303,19 +8313,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8335,7 +8345,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -8355,7 +8365,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -8375,7 +8385,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -8395,7 +8405,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -8415,7 +8425,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -8435,7 +8445,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -8455,7 +8465,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -8475,7 +8485,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -8495,7 +8505,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -8515,7 +8525,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -8535,7 +8545,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -8555,7 +8565,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>105</v>
       </c>
@@ -8575,7 +8585,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>108</v>
       </c>
@@ -8595,7 +8605,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -8615,7 +8625,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>122</v>
       </c>
@@ -8635,7 +8645,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>133</v>
       </c>
@@ -8655,7 +8665,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -8675,7 +8685,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -8689,7 +8699,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>143</v>
       </c>
@@ -8709,7 +8719,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>144</v>
       </c>
@@ -8729,7 +8739,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -8746,7 +8756,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>177</v>
       </c>
@@ -8766,7 +8776,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>182</v>
       </c>
@@ -8786,7 +8796,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>195</v>
       </c>
@@ -8806,7 +8816,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>202</v>
       </c>
@@ -8826,7 +8836,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>245</v>
       </c>
@@ -8846,7 +8856,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>245</v>
       </c>
@@ -8866,7 +8876,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>246</v>
       </c>
@@ -8886,7 +8896,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>271</v>
       </c>
@@ -8906,7 +8916,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>273</v>
       </c>
@@ -8926,7 +8936,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>275</v>
       </c>
@@ -8946,7 +8956,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>277</v>
       </c>
@@ -8966,7 +8976,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>285</v>
       </c>
@@ -8986,7 +8996,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>291</v>
       </c>
@@ -9006,7 +9016,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>292</v>
       </c>
@@ -9026,7 +9036,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>301</v>
       </c>
@@ -9046,7 +9056,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>309</v>
       </c>
@@ -9066,7 +9076,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>315</v>
       </c>
@@ -9086,7 +9096,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>329</v>
       </c>
@@ -9106,7 +9116,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>342</v>
       </c>
@@ -9126,7 +9136,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>347</v>
       </c>
@@ -9146,7 +9156,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>357</v>
       </c>
@@ -9166,7 +9176,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>379</v>
       </c>
@@ -9186,7 +9196,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>382</v>
       </c>
@@ -9203,7 +9213,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>386</v>
       </c>
@@ -9223,7 +9233,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>390</v>
       </c>
@@ -9243,7 +9253,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>394</v>
       </c>
@@ -9263,7 +9273,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>397</v>
       </c>
@@ -9283,7 +9293,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>411</v>
       </c>
@@ -9303,7 +9313,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>418</v>
       </c>
@@ -9323,7 +9333,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>423</v>
       </c>
@@ -9343,7 +9353,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>432</v>
       </c>
@@ -9363,7 +9373,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>434</v>
       </c>
@@ -9381,7 +9391,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F357">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F357">
     <sortCondition ref="F1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9389,19 +9399,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9418,7 +9428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -9435,7 +9445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -9449,7 +9459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -9466,7 +9476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -9483,7 +9493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -9497,7 +9507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -9511,7 +9521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -9528,7 +9538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -9545,7 +9555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -9562,7 +9572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -9579,7 +9589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -9596,7 +9606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -9613,7 +9623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -9630,7 +9640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -9647,7 +9657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -9664,7 +9674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -9681,7 +9691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -9698,7 +9708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -9715,7 +9725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -9732,7 +9742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -9749,7 +9759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -9766,7 +9776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -9783,7 +9793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -9800,7 +9810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -9817,7 +9827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -9834,7 +9844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -9851,7 +9861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -9868,7 +9878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -9885,7 +9895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -9902,7 +9912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -9919,7 +9929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -9936,7 +9946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -9953,7 +9963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -9970,7 +9980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -9987,7 +9997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -10004,7 +10014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -10021,7 +10031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -10038,7 +10048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -10052,7 +10062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -10069,7 +10079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -10086,7 +10096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -10103,7 +10113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -10120,7 +10130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -10137,7 +10147,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -10154,7 +10164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -10168,7 +10178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -10185,7 +10195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -10202,7 +10212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -10216,7 +10226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -10233,7 +10243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -10250,7 +10260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -10267,7 +10277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>96</v>
       </c>
@@ -10284,7 +10294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -10301,7 +10311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -10318,7 +10328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>99</v>
       </c>
@@ -10335,7 +10345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>101</v>
       </c>
@@ -10352,7 +10362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -10369,7 +10379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>106</v>
       </c>
@@ -10386,7 +10396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>107</v>
       </c>
@@ -10403,7 +10413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>109</v>
       </c>
@@ -10420,7 +10430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>111</v>
       </c>
@@ -10437,7 +10447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -10454,7 +10464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>113</v>
       </c>
@@ -10471,7 +10481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>114</v>
       </c>
@@ -10488,7 +10498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>115</v>
       </c>
@@ -10502,7 +10512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>116</v>
       </c>
@@ -10519,7 +10529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>117</v>
       </c>
@@ -10533,7 +10543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>118</v>
       </c>
@@ -10550,7 +10560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>120</v>
       </c>
@@ -10567,7 +10577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>121</v>
       </c>
@@ -10584,7 +10594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>123</v>
       </c>
@@ -10601,7 +10611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>124</v>
       </c>
@@ -10618,7 +10628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>125</v>
       </c>
@@ -10635,7 +10645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>126</v>
       </c>
@@ -10652,7 +10662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>128</v>
       </c>
@@ -10669,7 +10679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>129</v>
       </c>
@@ -10686,7 +10696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>130</v>
       </c>
@@ -10703,7 +10713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>131</v>
       </c>
@@ -10720,7 +10730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>132</v>
       </c>
@@ -10737,7 +10747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>137</v>
       </c>
@@ -10754,7 +10764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>138</v>
       </c>
@@ -10771,7 +10781,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>139</v>
       </c>
@@ -10785,7 +10795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>140</v>
       </c>
@@ -10799,7 +10809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>141</v>
       </c>
@@ -10813,7 +10823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>142</v>
       </c>
@@ -10830,7 +10840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>145</v>
       </c>
@@ -10847,7 +10857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>146</v>
       </c>
@@ -10864,7 +10874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>147</v>
       </c>
@@ -10881,7 +10891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>148</v>
       </c>
@@ -10898,7 +10908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>149</v>
       </c>
@@ -10915,7 +10925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>151</v>
       </c>
@@ -10932,7 +10942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>153</v>
       </c>
@@ -10949,7 +10959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>155</v>
       </c>
@@ -10966,7 +10976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>156</v>
       </c>
@@ -10983,7 +10993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>157</v>
       </c>
@@ -11000,7 +11010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>158</v>
       </c>
@@ -11017,7 +11027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>159</v>
       </c>
@@ -11034,7 +11044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>161</v>
       </c>
@@ -11051,7 +11061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>163</v>
       </c>
@@ -11068,7 +11078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>164</v>
       </c>
@@ -11085,7 +11095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>165</v>
       </c>
@@ -11102,7 +11112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>166</v>
       </c>
@@ -11119,7 +11129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>167</v>
       </c>
@@ -11136,7 +11146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>168</v>
       </c>
@@ -11153,7 +11163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>169</v>
       </c>
@@ -11170,7 +11180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>170</v>
       </c>
@@ -11184,7 +11194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>171</v>
       </c>
@@ -11198,7 +11208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>173</v>
       </c>
@@ -11215,7 +11225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>174</v>
       </c>
@@ -11232,7 +11242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>176</v>
       </c>
@@ -11249,7 +11259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>179</v>
       </c>
@@ -11266,7 +11276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>180</v>
       </c>
@@ -11283,7 +11293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>181</v>
       </c>
@@ -11300,7 +11310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>184</v>
       </c>
@@ -11317,7 +11327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>185</v>
       </c>
@@ -11334,7 +11344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>186</v>
       </c>
@@ -11351,7 +11361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>187</v>
       </c>
@@ -11368,7 +11378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>188</v>
       </c>
@@ -11382,7 +11392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>189</v>
       </c>
@@ -11399,7 +11409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>190</v>
       </c>
@@ -11416,7 +11426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>191</v>
       </c>
@@ -11433,7 +11443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>193</v>
       </c>
@@ -11450,7 +11460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>194</v>
       </c>
@@ -11467,7 +11477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>196</v>
       </c>
@@ -11484,7 +11494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>197</v>
       </c>
@@ -11501,7 +11511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>198</v>
       </c>
@@ -11518,7 +11528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>199</v>
       </c>
@@ -11535,7 +11545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>200</v>
       </c>
@@ -11552,7 +11562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>201</v>
       </c>
@@ -11569,7 +11579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>203</v>
       </c>
@@ -11586,7 +11596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>204</v>
       </c>
@@ -11594,7 +11604,7 @@
         <v>0.34399999999999997</v>
       </c>
       <c r="C132" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="D132" t="s">
         <v>7</v>
@@ -11603,7 +11613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>206</v>
       </c>
@@ -11620,7 +11630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>207</v>
       </c>
@@ -11637,7 +11647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>208</v>
       </c>
@@ -11654,7 +11664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>209</v>
       </c>
@@ -11671,7 +11681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>210</v>
       </c>
@@ -11688,7 +11698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>211</v>
       </c>
@@ -11705,7 +11715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>212</v>
       </c>
@@ -11719,7 +11729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>213</v>
       </c>
@@ -11736,7 +11746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>214</v>
       </c>
@@ -11753,7 +11763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>215</v>
       </c>
@@ -11770,7 +11780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>217</v>
       </c>
@@ -11787,7 +11797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>219</v>
       </c>
@@ -11804,7 +11814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>220</v>
       </c>
@@ -11821,7 +11831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>221</v>
       </c>
@@ -11838,7 +11848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>222</v>
       </c>
@@ -11855,7 +11865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>223</v>
       </c>
@@ -11872,7 +11882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>224</v>
       </c>
@@ -11889,7 +11899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>225</v>
       </c>
@@ -11906,7 +11916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>226</v>
       </c>
@@ -11923,7 +11933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>227</v>
       </c>
@@ -11940,7 +11950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>229</v>
       </c>
@@ -11957,7 +11967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>230</v>
       </c>
@@ -11965,7 +11975,7 @@
         <v>1.974</v>
       </c>
       <c r="C154" t="s">
-        <v>231</v>
+        <v>443</v>
       </c>
       <c r="D154" t="s">
         <v>7</v>
@@ -11974,7 +11984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>232</v>
       </c>
@@ -11991,7 +12001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>233</v>
       </c>
@@ -12008,7 +12018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>234</v>
       </c>
@@ -12025,7 +12035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>235</v>
       </c>
@@ -12042,7 +12052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>236</v>
       </c>
@@ -12059,7 +12069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>237</v>
       </c>
@@ -12073,7 +12083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>238</v>
       </c>
@@ -12090,7 +12100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>239</v>
       </c>
@@ -12107,7 +12117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>240</v>
       </c>
@@ -12124,7 +12134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>241</v>
       </c>
@@ -12141,7 +12151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>242</v>
       </c>
@@ -12158,7 +12168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>243</v>
       </c>
@@ -12175,7 +12185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>244</v>
       </c>
@@ -12192,7 +12202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>247</v>
       </c>
@@ -12209,7 +12219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>248</v>
       </c>
@@ -12226,7 +12236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>250</v>
       </c>
@@ -12243,7 +12253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>251</v>
       </c>
@@ -12260,7 +12270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>252</v>
       </c>
@@ -12277,7 +12287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>253</v>
       </c>
@@ -12294,7 +12304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>254</v>
       </c>
@@ -12311,7 +12321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>255</v>
       </c>
@@ -12328,7 +12338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>256</v>
       </c>
@@ -12345,7 +12355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>258</v>
       </c>
@@ -12362,7 +12372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>259</v>
       </c>
@@ -12379,7 +12389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>260</v>
       </c>
@@ -12396,7 +12406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>261</v>
       </c>
@@ -12413,7 +12423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>263</v>
       </c>
@@ -12430,7 +12440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>264</v>
       </c>
@@ -12447,7 +12457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>265</v>
       </c>
@@ -12464,7 +12474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>266</v>
       </c>
@@ -12481,7 +12491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>267</v>
       </c>
@@ -12498,7 +12508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>269</v>
       </c>
@@ -12512,7 +12522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>270</v>
       </c>
@@ -12529,7 +12539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>274</v>
       </c>
@@ -12543,7 +12553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>276</v>
       </c>
@@ -12560,7 +12570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>278</v>
       </c>
@@ -12574,7 +12584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>280</v>
       </c>
@@ -12591,7 +12601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>281</v>
       </c>
@@ -12608,7 +12618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>282</v>
       </c>
@@ -12625,7 +12635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>283</v>
       </c>
@@ -12642,7 +12652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>286</v>
       </c>
@@ -12659,7 +12669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>287</v>
       </c>
@@ -12676,7 +12686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>288</v>
       </c>
@@ -12693,7 +12703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>289</v>
       </c>
@@ -12701,7 +12711,7 @@
         <v>1.6659999999999999</v>
       </c>
       <c r="C198" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D198" t="s">
         <v>7</v>
@@ -12710,7 +12720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>293</v>
       </c>
@@ -12727,7 +12737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>294</v>
       </c>
@@ -12744,7 +12754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>295</v>
       </c>
@@ -12761,7 +12771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>296</v>
       </c>
@@ -12778,7 +12788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>297</v>
       </c>
@@ -12795,7 +12805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>298</v>
       </c>
@@ -12812,7 +12822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>299</v>
       </c>
@@ -12826,7 +12836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>300</v>
       </c>
@@ -12834,7 +12844,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="C206" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="D206" t="s">
         <v>7</v>
@@ -12843,7 +12853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>302</v>
       </c>
@@ -12860,7 +12870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>303</v>
       </c>
@@ -12877,7 +12887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>304</v>
       </c>
@@ -12894,7 +12904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>305</v>
       </c>
@@ -12911,7 +12921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>306</v>
       </c>
@@ -12925,7 +12935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>307</v>
       </c>
@@ -12942,7 +12952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>308</v>
       </c>
@@ -12959,7 +12969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>311</v>
       </c>
@@ -12976,7 +12986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>312</v>
       </c>
@@ -12993,7 +13003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>313</v>
       </c>
@@ -13010,7 +13020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>314</v>
       </c>
@@ -13027,7 +13037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>317</v>
       </c>
@@ -13044,7 +13054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>318</v>
       </c>
@@ -13061,7 +13071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>319</v>
       </c>
@@ -13078,7 +13088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>320</v>
       </c>
@@ -13095,7 +13105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>321</v>
       </c>
@@ -13112,7 +13122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>322</v>
       </c>
@@ -13129,7 +13139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>323</v>
       </c>
@@ -13146,7 +13156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>324</v>
       </c>
@@ -13163,7 +13173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>325</v>
       </c>
@@ -13180,7 +13190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>326</v>
       </c>
@@ -13197,7 +13207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>327</v>
       </c>
@@ -13214,7 +13224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>330</v>
       </c>
@@ -13231,7 +13241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>331</v>
       </c>
@@ -13248,7 +13258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>332</v>
       </c>
@@ -13265,7 +13275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>333</v>
       </c>
@@ -13282,7 +13292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>334</v>
       </c>
@@ -13299,7 +13309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>335</v>
       </c>
@@ -13316,7 +13326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>336</v>
       </c>
@@ -13333,7 +13343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>337</v>
       </c>
@@ -13350,7 +13360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>338</v>
       </c>
@@ -13367,7 +13377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>340</v>
       </c>
@@ -13375,7 +13385,7 @@
         <v>3.0640000000000001</v>
       </c>
       <c r="C238" t="s">
-        <v>341</v>
+        <v>442</v>
       </c>
       <c r="D238" t="s">
         <v>7</v>
@@ -13384,7 +13394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>344</v>
       </c>
@@ -13401,7 +13411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>345</v>
       </c>
@@ -13418,7 +13428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>346</v>
       </c>
@@ -13435,7 +13445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>348</v>
       </c>
@@ -13452,7 +13462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>349</v>
       </c>
@@ -13469,7 +13479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>350</v>
       </c>
@@ -13486,7 +13496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>351</v>
       </c>
@@ -13503,7 +13513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>352</v>
       </c>
@@ -13520,7 +13530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>353</v>
       </c>
@@ -13537,7 +13547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>354</v>
       </c>
@@ -13554,7 +13564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>355</v>
       </c>
@@ -13571,7 +13581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>356</v>
       </c>
@@ -13588,7 +13598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>359</v>
       </c>
@@ -13605,7 +13615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>360</v>
       </c>
@@ -13622,7 +13632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>362</v>
       </c>
@@ -13636,7 +13646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>363</v>
       </c>
@@ -13653,7 +13663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>365</v>
       </c>
@@ -13670,7 +13680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>366</v>
       </c>
@@ -13687,7 +13697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>368</v>
       </c>
@@ -13704,7 +13714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>369</v>
       </c>
@@ -13721,7 +13731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>370</v>
       </c>
@@ -13738,7 +13748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>371</v>
       </c>
@@ -13755,7 +13765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>372</v>
       </c>
@@ -13772,7 +13782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>373</v>
       </c>
@@ -13789,7 +13799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>374</v>
       </c>
@@ -13806,7 +13816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>375</v>
       </c>
@@ -13823,7 +13833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>376</v>
       </c>
@@ -13840,7 +13850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>377</v>
       </c>
@@ -13857,7 +13867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>378</v>
       </c>
@@ -13874,7 +13884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>381</v>
       </c>
@@ -13891,7 +13901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>383</v>
       </c>
@@ -13908,7 +13918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>384</v>
       </c>
@@ -13925,7 +13935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>385</v>
       </c>
@@ -13939,7 +13949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>387</v>
       </c>
@@ -13956,7 +13966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>389</v>
       </c>
@@ -13973,7 +13983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>391</v>
       </c>
@@ -13990,7 +14000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>392</v>
       </c>
@@ -14007,7 +14017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>393</v>
       </c>
@@ -14015,7 +14025,7 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="C276" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="D276" t="s">
         <v>7</v>
@@ -14024,7 +14034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>395</v>
       </c>
@@ -14041,7 +14051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>396</v>
       </c>
@@ -14055,7 +14065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>398</v>
       </c>
@@ -14069,7 +14079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>400</v>
       </c>
@@ -14086,7 +14096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>401</v>
       </c>
@@ -14103,7 +14113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>402</v>
       </c>
@@ -14117,7 +14127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>403</v>
       </c>
@@ -14134,7 +14144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>404</v>
       </c>
@@ -14151,7 +14161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>405</v>
       </c>
@@ -14168,7 +14178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>407</v>
       </c>
@@ -14176,7 +14186,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="C286" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="D286" t="s">
         <v>7</v>
@@ -14185,7 +14195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>409</v>
       </c>
@@ -14202,7 +14212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>412</v>
       </c>
@@ -14219,7 +14229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>413</v>
       </c>
@@ -14236,7 +14246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>414</v>
       </c>
@@ -14253,7 +14263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>415</v>
       </c>
@@ -14270,7 +14280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>416</v>
       </c>
@@ -14287,7 +14297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>417</v>
       </c>
@@ -14304,7 +14314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>419</v>
       </c>
@@ -14321,7 +14331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>420</v>
       </c>
@@ -14335,7 +14345,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>424</v>
       </c>
@@ -14352,7 +14362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>425</v>
       </c>
@@ -14369,7 +14379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>427</v>
       </c>
@@ -14386,7 +14396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>428</v>
       </c>
@@ -14403,7 +14413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>429</v>
       </c>
@@ -14420,7 +14430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>430</v>
       </c>
@@ -14434,7 +14444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>431</v>
       </c>
@@ -14451,7 +14461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>433</v>
       </c>
@@ -14468,7 +14478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>435</v>
       </c>
